--- a/modified_tables/table_14.xlsx
+++ b/modified_tables/table_14.xlsx
@@ -14,21 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>101,057</t>
-  </si>
-  <si>
-    <t>96,293</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Company cars</t>
+  </si>
+  <si>
+    <t>1,177,951</t>
+  </si>
+  <si>
+    <t>1,162,063</t>
+  </si>
+  <si>
+    <t>Total by rental car/private car</t>
+  </si>
+  <si>
+    <t>537,721</t>
+  </si>
+  <si>
+    <t>590,929</t>
+  </si>
+  <si>
+    <t>Total by rail</t>
+  </si>
+  <si>
+    <t>45,722</t>
+  </si>
+  <si>
+    <t>47,804</t>
+  </si>
+  <si>
+    <t>Total by air*</t>
+  </si>
+  <si>
+    <t>2,103,706</t>
+  </si>
+  <si>
+    <t>867,678</t>
   </si>
 </sst>
 </file>
@@ -386,38 +416,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
